--- a/dailyWorkReport.xlsx
+++ b/dailyWorkReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Wednesday</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>debugging first project &amp; add maven build tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learn &amp; working with noi buff, writing in file  </t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +204,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -507,15 +513,15 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="41.5" customWidth="1"/>
   </cols>
@@ -547,11 +553,11 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5</v>
+      <c r="C2" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.70833333333333337</v>
       </c>
       <c r="E2" s="1">
         <v>7</v>
@@ -567,11 +573,11 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
+      <c r="C3" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.66666666666666663</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
@@ -607,10 +613,18 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -619,8 +633,8 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>

--- a/dailyWorkReport.xlsx
+++ b/dailyWorkReport.xlsx
@@ -513,7 +513,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dailyWorkReport.xlsx
+++ b/dailyWorkReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Wednesday</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t xml:space="preserve">refactor first project  </t>
+  </si>
+  <si>
+    <t>refactor first project, working on thread</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,10 +679,18 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">

--- a/dailyWorkReport.xlsx
+++ b/dailyWorkReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Wednesday</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>refactor first project, working on thread</t>
+  </si>
+  <si>
+    <t>refactor first project</t>
   </si>
 </sst>
 </file>
@@ -519,14 +522,14 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="46.42578125" customWidth="1"/>
@@ -660,7 +663,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="10">
-        <v>8.3333333333333329E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D8" s="10">
         <v>0.91666666666666663</v>
@@ -699,10 +702,18 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">

--- a/dailyWorkReport.xlsx
+++ b/dailyWorkReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Wednesday</t>
   </si>
@@ -522,7 +522,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,10 +722,18 @@
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="10">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">

--- a/dailyWorkReport.xlsx
+++ b/dailyWorkReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Wednesday</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>refactor first project</t>
+  </si>
+  <si>
+    <t>99.04.21</t>
+  </si>
+  <si>
+    <t>refactor first project, create service &amp; model package. working with nio</t>
   </si>
 </sst>
 </file>
@@ -519,20 +525,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="6" max="6" width="65.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -754,34 +760,66 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dailyWorkReport.xlsx
+++ b/dailyWorkReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Wednesday</t>
   </si>
@@ -109,6 +109,24 @@
   </si>
   <si>
     <t>refactor first project, create service &amp; model package. working with nio</t>
+  </si>
+  <si>
+    <t>99.04.22</t>
+  </si>
+  <si>
+    <t>99.04.23</t>
+  </si>
+  <si>
+    <t>99.04.24</t>
+  </si>
+  <si>
+    <t>99.04.25</t>
+  </si>
+  <si>
+    <t>99.04.26</t>
+  </si>
+  <si>
+    <t>99.04.27</t>
   </si>
 </sst>
 </file>
@@ -196,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,7 +229,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,17 +545,17 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="65.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -568,10 +585,10 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>0.375</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>0.70833333333333337</v>
       </c>
       <c r="E2" s="1">
@@ -588,10 +605,10 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="E3" s="1">
@@ -608,18 +625,14 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -628,10 +641,10 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>0.70833333333333337</v>
       </c>
       <c r="E6" s="1">
@@ -648,10 +661,10 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>0.375</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>0.75</v>
       </c>
       <c r="E7" s="1">
@@ -668,10 +681,10 @@
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>0.91666666666666663</v>
       </c>
       <c r="E8" s="1">
@@ -688,10 +701,10 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>0.375</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>0.70833333333333337</v>
       </c>
       <c r="E9" s="1">
@@ -708,10 +721,10 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>0.5</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>0.83333333333333337</v>
       </c>
       <c r="E10" s="1">
@@ -728,10 +741,10 @@
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>0.91666666666666663</v>
       </c>
       <c r="E11" s="1">
@@ -748,16 +761,6 @@
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -766,16 +769,16 @@
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>0.95833333333333337</v>
       </c>
       <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -783,42 +786,60 @@
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/dailyWorkReport.xlsx
+++ b/dailyWorkReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Wednesday</t>
   </si>
@@ -545,7 +545,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,6 +808,18 @@
       </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">

--- a/dailyWorkReport.xlsx
+++ b/dailyWorkReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Wednesday</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>99.04.27</t>
+  </si>
+  <si>
+    <t>debugging first project, working on thread</t>
+  </si>
+  <si>
+    <t>debugging first project, watching  thread video</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,23 +828,47 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
@@ -846,7 +876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>2</v>
       </c>

--- a/dailyWorkReport.xlsx
+++ b/dailyWorkReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Wednesday</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>debugging first project, watching  thread video</t>
+  </si>
+  <si>
+    <t>debugging first project</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,6 +877,18 @@
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">

--- a/dailyWorkReport.xlsx
+++ b/dailyWorkReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Wednesday</t>
   </si>
@@ -136,13 +136,49 @@
   </si>
   <si>
     <t>debugging first project</t>
+  </si>
+  <si>
+    <t>99.04.28</t>
+  </si>
+  <si>
+    <t>99.04.29</t>
+  </si>
+  <si>
+    <t>99.04.30</t>
+  </si>
+  <si>
+    <t>99.04.31</t>
+  </si>
+  <si>
+    <t>99.05.01</t>
+  </si>
+  <si>
+    <t>99.05.02</t>
+  </si>
+  <si>
+    <t>debugging &amp; Refactoring project (rename class,change type of variable), read about logging</t>
+  </si>
+  <si>
+    <t>debugging project,working on log4j</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> working on log4j, read about (concurrency,parallel processing and multi-thread)</t>
+  </si>
+  <si>
+    <t>debugging project, working on log4j, read about (sleep, wait, join method)</t>
+  </si>
+  <si>
+    <t>debugging project, read about executors (fixed thread,single thread, thread pool)</t>
+  </si>
+  <si>
+    <t>debugging project, read about  execption handling &amp; working on it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +205,13 @@
       <b/>
       <sz val="11"/>
       <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,10 +263,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,9 +294,16 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +615,7 @@
     <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="67.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="110.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -897,6 +948,129 @@
       </c>
       <c r="B20" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E24" s="1">
+        <v>8</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E26" s="1">
+        <v>7</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="E27" s="1">
+        <v>7</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
